--- a/Data for Johannes/metadata.xlsx
+++ b/Data for Johannes/metadata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>pop_UN</t>
   </si>
@@ -277,13 +277,28 @@
       </rPr>
       <t xml:space="preserve"> (London) Online: http://www.lse.ac.uk/GranthamInstitute/legislation/.</t>
     </r>
+  </si>
+  <si>
+    <t>carbon_price_gap</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Carbon pricing gap at 60 EUR</t>
+  </si>
+  <si>
+    <t>OECD</t>
+  </si>
+  <si>
+    <t>http://www.oecd.org/tax/tax-policy/effective-carbon-rates-2018-brochure.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +322,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -325,16 +355,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -613,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +817,27 @@
         <v>38</v>
       </c>
     </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>